--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_279.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_279.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G', 'D']]</t>
-        </is>
+          <t>jaah_15</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1519886363636364</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>[['G:7', 'C', 'C']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(0.344657, 14.158934)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(60.04, 70.96)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:12.030000', '0:00:14.360000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:07.020000', '0:00:13.540000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3860294117647059</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07984496124031007</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
+          <t>[['G:7', 'C:min', 'B:dim7/C', 'C:min'], ['G:7', 'C:min', 'C:min', 'D:hdim7/C'], ['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(24.86, 45.46)]</t>
+          <t>[['E:7', 'A:min', 'G#:dim7', 'A:min'], ['E:7', 'A:min', 'A:min', 'B:hdim7/D'], ['A:min', 'G#:dim7', 'A:min', 'G#:dim7']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(61.683832, 71.056785)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:01:15.980000', '0:01:25.720000'), ('0:00:24.760000', '0:00:32.320000'), ('0:00:00.240000', '0:00:09.240000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:19.360000', '0:00:25.140000'), ('0:00:13.660000', '0:00:19.360000'), ('0:00:20.840000', '0:00:26.580000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2452107279693486</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3375</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(48.25, 53.91)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(11.04, 20.52)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:37.995918', '0:00:46.610521')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3142857142857143</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(2.36, 5.68)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(35.888, 38.359)]</t>
+          <t>[('0:01:06.920000', '0:01:08.180000'), ('0:01:05.200000', '0:01:07.500000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:43.340000', '0:00:59.340000'), ('0:01:58.440000', '0:02:01.680000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_243</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1458333333333333</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D', 'G'], ['C', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_236</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2532467532467533</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B', 'E'], ['A', 'B', 'E']]</t>
+          <t>[['E:maj', 'A:maj', 'D:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(30.378072, 35.532902), (65.382154, 74.101247)]</t>
+          <t>[['F#', 'B', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(1.302038, 5.800261), (19.616133, 25.815861)]</t>
+          <t>[('0:00:59.331000', '0:01:07.056000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+          <t>[('0:00:38.514896', '0:00:46.490951')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2392857142857143</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(63.24, 64.62)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(254.26, 257.98)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:15.300000', '0:00:19.720000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:07.560000', '0:00:20.920000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min'], ['F#:maj', 'C#:7/F', 'F#:maj'], ['D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.53125</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['C#:maj/F', 'G#:7', 'C#:maj'], ['A#:min', 'F:maj', 'A#:min']]</t>
+          <t>[['A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A'], ['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(116.66, 121.42), (34.38, 38.52), (1.26, 5.92)]</t>
+          <t>[['G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G'], ['C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (35.22, 40.0), (11.7, 20.02)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:02:02.780000', '0:02:35.976000'), ('0:03:12.882000', '0:03:47.943000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:28.210155', '0:00:42.831033'), ('0:00:26.391305', '0:00:41.205636')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2150537634408602</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(21.5, 24.4)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(10.46, 17.4)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:01:08.980000', '0:01:27.200000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2976190476190476</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(69.86, 73.74)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(65.2, 67.5)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:05.440000', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:19.140000', '0:00:22.240000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1274509803921569</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'F#']]</t>
-        </is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6166666666666667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>[['Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(15.880484, 21.522933)]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(69.86, 73.74)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:02:08.853900', '0:02:18.699160')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:02:13.919000', '0:02:27.191000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_83</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1577922077922078</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'G']]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'E:7', 'A:maj', 'C#:7/G#', 'G:(3,5)', 'B:maj', 'G#:(3,5,b7,b9)', 'C#:min/F#', 'E:maj/F#', 'F#:7', 'B:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(5.78, 11.38)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(6.38, 9.89)]</t>
+          <t>[('0:00:00.320000', '0:00:40.640000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(80.48, 93.6), (79.98, 87.7)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(5.7, 10.9), (15.3, 17.78)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1833333333333333</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:maj', 'A#:maj', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(12.06, 16.72), (111.92, 115.36), (0.34, 4.84)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(37.12, 40.3), (75.8, 79.6), (10.38, 16.32)]</t>
+          <t>[('0:00:40.100000', '0:01:24.580000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:46.340000', '0:01:37.480000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1755952380952381</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_101</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb', 'Eb', 'Bb/3']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(9.94, 13.4)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(18.253, 23.992)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:13.020000', '0:00:45.300000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:14.440000', '0:00:47.400000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.150268336314848</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(33.14, 37.24)]</t>
+          <t>[['G:maj', 'C:maj', 'D:9/F#', 'G:maj', 'A:7/E', 'D:min', 'G:(3,5,b7,b9)', 'C:maj', 'F:maj', 'C:maj/E', 'G:min/D', 'A:maj/C#', 'A#:maj/D', 'C:7/E', 'F:maj', 'D:min7/F', 'D:(3,5,b7,b9)/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(31.6, 33.8)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_26</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_85</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1061827956989247</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C#:dim7', 'G:maj7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['Ab:7', 'Db', 'D:dim7', 'Ab:maj7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(43.2, 49.0)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(96.02, 98.87)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:01:00.760000', '0:01:22.800000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:01.140000', '0:01:23.520000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
